--- a/data/income_statement/2digits/total/25_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/25_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>25-Manufacture of fabricated metal products, except machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>23574872.38208999</v>
+        <v>23574872.38209</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>27652164.95738</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>38840548.67732</v>
+        <v>38846598.31932</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>42774257.63351</v>
+        <v>42829889.76826</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>49009465.26644</v>
+        <v>49122465.36606</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>57999797.19004</v>
+        <v>58611443.83309999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>61390880.89308</v>
+        <v>66052127.22567</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>74144848.97518</v>
+        <v>74492338.58864</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>95952678.83031999</v>
+        <v>95952678.83031997</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>128504020.49518</v>
+        <v>128636666.27865</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>144636695.30575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>145487609.53135</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>186526802.606</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>17716971.40382</v>
@@ -998,73 +909,83 @@
         <v>30317957.01724</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>33472031.05026</v>
+        <v>33518365.69598</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>38503653.2236</v>
+        <v>38538144.42337</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>45617948.02851</v>
+        <v>46134109.33022</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>48740552.47337</v>
+        <v>52349525.35033</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>58778871.16655999</v>
+        <v>59037264.94197</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>75767606.43814</v>
+        <v>75767606.43813999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>96253394.27804001</v>
+        <v>96379332.43219998</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>105789532.70687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>106495614.77706</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>138245073.229</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>5584347.01097</v>
+        <v>5584347.010970001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>5645826.47685</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>8104928.995889999</v>
+        <v>8110978.63789</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8883624.2059</v>
+        <v>8891674.988430001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10032582.97197</v>
+        <v>10110585.8222</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>11798366.33011</v>
+        <v>11886451.5352</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>11982823.62079</v>
+        <v>12957909.74064</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>14449515.13825</v>
+        <v>14536181.29236</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>19039667.82329</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>30612569.98948</v>
+        <v>30618372.7684</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>37142871.60149001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>37278853.63013001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>46051444.638</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>273553.9673</v>
@@ -1076,73 +997,83 @@
         <v>417662.66419</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>418602.37735</v>
+        <v>419849.08385</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>473229.07087</v>
+        <v>473735.12049</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>583482.8314199999</v>
+        <v>590882.9676800001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>667504.79892</v>
+        <v>744692.1346999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>916462.6703699999</v>
+        <v>918892.35431</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>1145404.56889</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1638056.22766</v>
+        <v>1638961.07805</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1704290.99739</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1713141.12416</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>2230284.739</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>570577.42464</v>
+        <v>570577.4246400001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>648582.99885</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>857294.30918</v>
+        <v>857294.3091800001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1041009.98595</v>
+        <v>1049982.1291</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1079195.57453</v>
+        <v>1080139.07175</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1568813.11979</v>
+        <v>1594992.99586</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1685007.12524</v>
+        <v>1763817.64439</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1983660.53758</v>
+        <v>1991692.16397</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>2936420.16945</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4211926.06465</v>
+        <v>4212862.130079999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4577106.7179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4585085.797299999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>5637423.055</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>213672.95099</v>
@@ -1154,37 +1085,42 @@
         <v>247422.73815</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>324408.63269</v>
+        <v>325117.18741</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>340596.32722</v>
+        <v>341295.53518</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>411871.98654</v>
+        <v>421550.58377</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>500524.32604</v>
+        <v>527687.33432</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>634189.91539</v>
+        <v>636565.5911399999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>936499.71818</v>
+        <v>936499.7181800001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1146708.92628</v>
+        <v>1147626.8897</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1138729.29025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1144922.55881</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2200688.17</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>315027.87812</v>
+        <v>315027.8781200001</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>412950.92952</v>
@@ -1193,34 +1129,39 @@
         <v>562769.19254</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>651864.0779899999</v>
+        <v>660110.5294700001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>672596.9787</v>
+        <v>672597.7009299999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1062910.69793</v>
+        <v>1078688.90277</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1064061.88863</v>
+        <v>1103186.63697</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1233827.01696</v>
+        <v>1239467.95012</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>1826149.20306</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>2647533.319829999</v>
+        <v>2647537.116110001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3134235.842149999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>3135683.021609999</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>3091919.289</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>41876.59552999999</v>
@@ -1232,112 +1173,127 @@
         <v>47102.37849</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>64737.27527000001</v>
+        <v>64754.41222000001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>66002.26861</v>
+        <v>66245.83564</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>94030.43531999999</v>
+        <v>94753.50932000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>120420.91057</v>
+        <v>132943.6731</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>115643.60523</v>
+        <v>115658.62271</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>173771.24821</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>417683.81854</v>
+        <v>417698.12427</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>304141.5855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>304480.21688</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>344815.596</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>23004294.95745</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>27003581.95853</v>
+        <v>27003581.95853001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>37983254.36814</v>
+        <v>37989304.01014</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>41733247.64756</v>
+        <v>41779907.63916001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>47930269.69191001</v>
+        <v>48042326.29431</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>56430984.07025</v>
+        <v>57016450.83724</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>59705873.76784</v>
+        <v>64288309.58128</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>72161188.4376</v>
+        <v>72500646.42467001</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>93016258.66087</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>124292094.43053</v>
+        <v>124423804.14857</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>140059588.58785</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>140902523.73405</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>180889379.551</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>18762107.96739</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>22412139.40934</v>
+        <v>22412139.40933999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>31637163.82923</v>
+        <v>31643058.42933</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>34858365.97787</v>
+        <v>34894452.92547</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>39631055.7814</v>
+        <v>39711639.54902001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>46770076.0459</v>
+        <v>47221783.53455999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>48905273.78904</v>
+        <v>52419105.26835</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>58945229.19178999</v>
+        <v>59213075.65075</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>76078386.53992002</v>
+        <v>76078386.53992</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>100498188.33858</v>
+        <v>100618774.16043</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>113929734.32544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>114665413.08961</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>144446547.312</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>13840216.99461</v>
@@ -1349,34 +1305,39 @@
         <v>23648248.30822</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>26511675.5871</v>
+        <v>26527278.94018</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>29809233.22674</v>
+        <v>29871449.51297</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>34445415.89727</v>
+        <v>34676689.64517</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>36732506.96519</v>
+        <v>39320417.32864999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>43141940.89193</v>
+        <v>43335254.34153</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>58432563.77141999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>78048037.02124001</v>
+        <v>78095038.87407002</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>88846510.74629001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>89238904.18949001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>112021227.425</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>2825869.03164</v>
@@ -1388,34 +1349,39 @@
         <v>5050794.37875</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5156459.13648</v>
+        <v>5167649.28695</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6028787.02987</v>
+        <v>6030846.08809</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7314913.826700001</v>
+        <v>7343710.995479999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7331170.11443</v>
+        <v>7663804.56183</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8459472.239049999</v>
+        <v>8527085.67069</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>11056848.93556</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>14402144.7058</v>
+        <v>14460478.26751</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>16095582.99879</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16355431.16956</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>22439072.725</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1936247.0465</v>
@@ -1424,37 +1390,42 @@
         <v>1968169.49586</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2736473.78395</v>
+        <v>2742368.38405</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2966997.48784</v>
+        <v>2976290.93189</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3597104.61529</v>
+        <v>3613413.038459999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4769030.45734</v>
+        <v>4960029.175780001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4591879.893719999</v>
+        <v>5137583.456739999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6946096.604350001</v>
+        <v>6951858.669190001</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>6113387.73542</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7365273.29764</v>
+        <v>7380167.956369999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8147135.33609</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8229126.613240001</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8846080.069</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>159774.89464</v>
@@ -1472,262 +1443,297 @@
         <v>195930.9095</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>240715.86459</v>
+        <v>241353.71813</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>249716.8157</v>
+        <v>297299.92113</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>397719.45646</v>
+        <v>398876.96934</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>475586.0975199999</v>
+        <v>475586.09752</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>682733.3139</v>
+        <v>683089.0624800001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>840505.2442699999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>841951.11732</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1140167.093</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4242186.99006</v>
+        <v>4242186.990060001</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>4591442.54919</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6346090.53891</v>
+        <v>6346245.580809999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>6874881.669690001</v>
+        <v>6885454.71369</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8299213.910509999</v>
+        <v>8330686.74529</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>9660908.024350001</v>
+        <v>9794667.302680001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>10800599.9788</v>
+        <v>11869204.31293</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>13215959.24581</v>
+        <v>13287570.77392</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>16937872.12095</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>23793906.09195</v>
+        <v>23805029.98814</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>26129854.26241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>26237110.64444</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>36442832.239</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2497462.19795</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2825342.35943</v>
+        <v>2825344.57943</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>3458108.46265</v>
+        <v>3458109.66265</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4057815.39519</v>
+        <v>4065542.35417</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4737963.509670001</v>
+        <v>4746528.8486</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5423896.109769999</v>
+        <v>5494931.11335</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>5752037.4655</v>
+        <v>6259596.71485</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7056556.71</v>
+        <v>7102990.38975</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>8459996.145500001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10632566.48862</v>
+        <v>10658970.3272</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>12536870.84298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12657441.64797</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>14605911.263</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>49595.10359000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>48467.99332</v>
+        <v>48467.99331999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>60771.872</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>76919.15343999999</v>
+        <v>76920.50021</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>111510.66756</v>
+        <v>111516.13001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>119873.9176</v>
+        <v>120548.92168</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>106545.84975</v>
+        <v>127126.48417</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>144319.84334</v>
+        <v>144667.2149</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>156527.80595</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>242787.73187</v>
+        <v>242881.33616</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>304522.38936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>307596.17865</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>330591.307</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>808802.7927100001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>942054.1422100001</v>
+        <v>942054.1422100002</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>1163824.7007</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1404142.56337</v>
+        <v>1409881.22183</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1648881.88885</v>
+        <v>1649966.32313</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1878536.88526</v>
+        <v>1906106.30732</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2055996.08888</v>
+        <v>2188053.89269</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2421984.96338</v>
+        <v>2440688.29115</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>3053672.25145</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4012963.68458</v>
+        <v>4014514.10305</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4787703.35095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4807834.5883</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5627783.216</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1639064.30165</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1834820.2239</v>
+        <v>1834822.4439</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2233511.88995</v>
+        <v>2233513.08995</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2576753.67838</v>
+        <v>2578740.63213</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2977570.95326</v>
+        <v>2985046.39546</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3425485.30691</v>
+        <v>3468275.884349999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3589495.52687</v>
+        <v>3944416.33799</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4490251.903279999</v>
+        <v>4517634.8837</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>5249796.0881</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>6376815.072170001</v>
+        <v>6401574.887989999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>7444645.10267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7542010.88102</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8647536.74</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1744724.79211</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1766100.18976</v>
+        <v>1766097.96976</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>2887982.07626</v>
+        <v>2888135.91816</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2817066.2745</v>
+        <v>2819912.359519999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3561250.40084</v>
+        <v>3584157.89669</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4237011.91458</v>
+        <v>4299736.189329999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5048562.513299999</v>
+        <v>5609607.59808</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6159402.535809999</v>
+        <v>6184580.38417</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8477875.975449998</v>
+        <v>8477875.97545</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13161339.60333</v>
+        <v>13146059.66094</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>13592983.41943</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13579668.99647</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>21836920.976</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1091549.85504</v>
@@ -1736,37 +1742,42 @@
         <v>1128181.88971</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1510040.15836</v>
+        <v>1510060.71446</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1377080.22935</v>
+        <v>1377997.5923</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1893980.35024</v>
+        <v>1895868.31952</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1987518.02958</v>
+        <v>2025086.40626</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3171629.46399</v>
+        <v>3536061.59146</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3785512.71488</v>
+        <v>3816051.09822</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>5094577.43716</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>15055791.98541</v>
+        <v>15079306.56185</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>8139057.71155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>8198346.495410003</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>18412503.518</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>31030.48153</v>
@@ -1775,7 +1786,7 @@
         <v>53941.64780000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>39099.12736999999</v>
+        <v>39099.12737</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>42235.53317</v>
@@ -1784,10 +1795,10 @@
         <v>156022.40095</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>57600.07718000001</v>
+        <v>57600.07718</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>97890.46887000001</v>
+        <v>137379.48677</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>63253.68392</v>
@@ -1796,16 +1807,21 @@
         <v>26951.79079</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>75118.32557</v>
+        <v>83077.99223999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>91837.45463000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>124671.07963</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>144764.367</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>32278.72466</v>
@@ -1817,7 +1833,7 @@
         <v>124810.58376</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>38897.70819999999</v>
+        <v>38897.7082</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>18687.92893</v>
@@ -1826,7 +1842,7 @@
         <v>19405.88925</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>15993.70921</v>
+        <v>16059.4104</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>132272.60283</v>
@@ -1840,59 +1856,69 @@
       <c r="M27" s="48" t="n">
         <v>51771.69669</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>30542.099</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>83318.54353</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>71593.19557</v>
+        <v>71593.19557000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>96916.13417000002</v>
+        <v>96916.13416999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>117690.46321</v>
+        <v>117691.37325</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>106549.6166</v>
+        <v>106687.93599</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>127969.38993</v>
+        <v>129296.93226</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>160359.21039</v>
+        <v>174336.53109</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>198437.42323</v>
+        <v>198993.91318</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>297565.8966900001</v>
+        <v>297565.89669</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>504978.4145</v>
+        <v>512041.2068099999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>574235.86387</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>583553.3290899999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>568972.281</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>3077.06084</v>
+        <v>3077.060839999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3035.808579999999</v>
+        <v>3035.80858</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2970.37538</v>
+        <v>2970.375379999999</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>4198.00455</v>
@@ -1901,28 +1927,33 @@
         <v>2936.42951</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5060.53517</v>
+        <v>5159.25589</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>7275.10454</v>
+        <v>7509.85525</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2813.01667</v>
+        <v>2823.707560000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2852.22345</v>
+        <v>2852.223450000001</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>11957.93139</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>38357.01107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>36111.29096000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7064.789</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>21027.07579</v>
@@ -1934,43 +1965,48 @@
         <v>19291.06016</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>20793.01005</v>
+        <v>20886.22715</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>27368.41322</v>
+        <v>27444.59526</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>28949.20977</v>
+        <v>29237.90263</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>43732.545</v>
+        <v>49385.45046</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>62926.22881</v>
+        <v>64455.07354999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>34821.35572</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>65731.42539999999</v>
+        <v>65823.09836</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>82801.25512</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>82890.25234000002</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>78498.482</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4155.977790000001</v>
+        <v>4155.97779</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>39761.22765</v>
+        <v>39761.22765000002</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3956.02861</v>
+        <v>3956.028610000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>34061.89646</v>
@@ -1979,67 +2015,77 @@
         <v>52784.15651</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>9870.835260000002</v>
+        <v>9883.207469999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>9996.62789</v>
+        <v>10072.27436</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>125314.7729</v>
+        <v>125342.68687</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>32819.60283</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>70643.01609999998</v>
+        <v>70646.52511999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>86630.88047</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>86695.80868999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>95697.337</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>750432.5285</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>737132.46894</v>
+        <v>737132.4689400002</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1037033.15952</v>
+        <v>1037053.71562</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>907830.75552</v>
+        <v>907856.06455</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1281128.13644</v>
+        <v>1282654.43324</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1460130.26367</v>
+        <v>1494109.92606</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2534024.46956</v>
+        <v>2819989.36509</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2777986.15943</v>
+        <v>2804764.62126</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>4151792.39989</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>13581466.04737</v>
+        <v>13582014.53946</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6395144.85865</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6406740.821230002</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>16534313.206</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>14860.93344</v>
@@ -2057,16 +2103,16 @@
         <v>26118.51505999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>42398.78506</v>
+        <v>42486.69321</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>57408.31295</v>
+        <v>57671.06524</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>71008.91128</v>
+        <v>71094.85605</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>76295.70116000001</v>
+        <v>76295.70116</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>118670.45866</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>147737.03522</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>195760.937</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>431.95846</v>
@@ -2087,10 +2138,10 @@
         <v>397.38001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>2637.615859999999</v>
+        <v>2637.61586</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>832.6992400000001</v>
+        <v>832.69924</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>1318.26051</v>
@@ -2099,10 +2150,10 @@
         <v>450.02028</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>342.38999</v>
+        <v>345.99988</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>301.66273</v>
+        <v>301.6627300000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>306.85772</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>503.39998</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>376.138</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>150936.5705</v>
@@ -2129,73 +2185,83 @@
         <v>169682.14321</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>199920.82643</v>
+        <v>200718.75321</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>221066.49251</v>
+        <v>221213.66356</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>235683.02401</v>
+        <v>237456.50203</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>244606.62559</v>
+        <v>263312.15292</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>351198.25308</v>
+        <v>352748.2902700001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>437716.7666900001</v>
+        <v>437716.76669</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>591617.8751800001</v>
+        <v>599466.31857</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>670038.25585</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>677671.78158</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>756513.882</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>875253.2898299999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>793716.3458599999</v>
+        <v>793716.34586</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1368595.17125</v>
+        <v>1368610.07235</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>928335.12329</v>
+        <v>929042.8177200001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1847561.49573</v>
+        <v>1849480.78696</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1805891.7629</v>
+        <v>1854047.12538</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2997552.2538</v>
+        <v>3332607.22589</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3485298.388</v>
+        <v>3523504.98639</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4959126.96353</v>
+        <v>4959126.963529999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>15219913.19298</v>
+        <v>15221584.75213</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>7213231.55182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>7246374.2638</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>16873455.434</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>9884.745080000001</v>
@@ -2210,31 +2276,36 @@
         <v>13616.59287</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>14225.84302</v>
+        <v>14290.73629</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>18567.24284</v>
+        <v>18632.67325</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>16194.55485</v>
+        <v>17324.58698</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>20529.49297</v>
+        <v>21069.34954</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>27612.61243</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>46220.08865999999</v>
+        <v>46220.65192</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>50248.32726999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>50718.57374999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>56673.307</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>81850.08418999999</v>
@@ -2246,34 +2317,39 @@
         <v>61082.69778</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>100444.0953</v>
+        <v>101119.69484</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>107237.54875</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>149774.5276</v>
+        <v>150904.78705</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>127954.45386</v>
+        <v>130778.73135</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>224500.61459</v>
+        <v>231915.51381</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>240124.60593</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>341415.19121</v>
+        <v>341529.5141799999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>287957.76206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>300047.92291</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>216971.873</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>378.52392</v>
@@ -2294,64 +2370,74 @@
         <v>7432.88921</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4252.34309</v>
+        <v>4252.343090000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>9099.351620000001</v>
+        <v>9117.418469999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6001.878729999999</v>
+        <v>6001.87873</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>37786.28671</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6953.650779999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>6953.65078</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>35246.715</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>722403.0933599999</v>
+        <v>722403.0933600002</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>652004.9949200001</v>
+        <v>652004.9949199999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1198561.89681</v>
+        <v>1198576.79791</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>737900.4348399999</v>
+        <v>737932.5297300001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1585165.36202</v>
+        <v>1587019.69529</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1502970.11643</v>
+        <v>1549370.00559</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2714384.01059</v>
+        <v>3039388.33131</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3045496.21582</v>
+        <v>3075324.75101</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4476234.009149999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>14430547.8514</v>
+        <v>14431776.5827</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6525758.226799999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6543568.470999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>16053702.032</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>14785.63942</v>
@@ -2369,16 +2455,16 @@
         <v>35883.60022</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>44482.09485000001</v>
+        <v>44591.33225</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>61097.22767999999</v>
+        <v>61667.01707000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>70594.06256000001</v>
+        <v>70596.74425</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>78848.49466000001</v>
+        <v>78848.49466</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>130001.38633</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>140747.80523</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>220316.666</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>225.93889</v>
@@ -2399,10 +2490,10 @@
         <v>155.50808</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>2590.538080000001</v>
+        <v>2590.53808</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>427.24494</v>
+        <v>427.2449399999999</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>52.64891</v>
@@ -2414,103 +2505,118 @@
         <v>80.491</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>24.35581</v>
+        <v>57.4515</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>79.51951000000001</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>71.36151</v>
+        <v>71.36151000000001</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>53.40925</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>22.269</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>45725.26497</v>
+        <v>45725.26496999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>52315.57834</v>
+        <v>52315.57833999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>82650.39986</v>
+        <v>82650.39986000002</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>71416.91608000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>103313.98744</v>
+        <v>103314.05213</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>82591.84571000001</v>
+        <v>83042.39177000002</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>73589.17272999999</v>
+        <v>79115.72509000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>115054.29463</v>
+        <v>115423.75781</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>130225.84312</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>233871.02716</v>
+        <v>234198.96878</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>201512.37043</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>204284.43088</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>290522.572</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>665295.9952100001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>532705.3682799999</v>
+        <v>532705.3682800001</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>920370.57478</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>821623.3483600001</v>
+        <v>826407.47953</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1089952.95163</v>
+        <v>1090958.27407</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1176444.31712</v>
+        <v>1190633.66868</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1599410.38964</v>
+        <v>1755094.91588</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1746509.42495</v>
+        <v>1754999.03741</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2385800.52687</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4240118.68617</v>
+        <v>4241256.12879</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3729688.73249</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3740657.606940001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4532023.263</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>582366.4481700001</v>
+        <v>582366.44817</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>427572.48517</v>
@@ -2519,34 +2625,39 @@
         <v>745698.0802000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>721727.0685299999</v>
+        <v>726511.1997</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>913103.30194</v>
+        <v>914054.4651</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1008414.44994</v>
+        <v>1022513.43174</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1264631.50646</v>
+        <v>1371236.68217</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1465963.90151</v>
+        <v>1472830.23303</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1990940.5728</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3435162.45771</v>
+        <v>3436298.99209</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3270632.61238</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3280400.64659</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>3728202.537</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>82929.54703999999</v>
@@ -2555,76 +2666,86 @@
         <v>105132.88311</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>174672.49458</v>
+        <v>174672.4945799999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>99896.27983</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>176849.64969</v>
+        <v>176903.80897</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>168029.86718</v>
+        <v>168120.23694</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>334778.8831800001</v>
+        <v>383858.2337100001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>280545.52344</v>
+        <v>282168.8043799999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>394859.95407</v>
+        <v>394859.9540699999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>804956.22846</v>
+        <v>804957.1366999999</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>459056.12011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>460256.9603499999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>803820.726</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1295725.36211</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>1567860.36533</v>
+        <v>1567858.14533</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>2109056.48859</v>
+        <v>2109215.98549</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2444188.0322</v>
+        <v>2442459.65457</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2517716.30372</v>
+        <v>2539587.15518</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3242193.86414</v>
+        <v>3280141.80153</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3623229.33385</v>
+        <v>4057967.04777</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4713107.43774</v>
+        <v>4722127.45859</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>6227525.92221</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8757099.709590001</v>
+        <v>8762525.341869997</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>10789120.84667</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10790983.62114</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>18843945.797</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>180458.43474</v>
@@ -2636,34 +2757,39 @@
         <v>233542.13934</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>273283.2095700001</v>
+        <v>273299.85568</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>377540.76515</v>
+        <v>377786.89416</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>447504.49801</v>
+        <v>451912.73894</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>614463.8238199999</v>
+        <v>657609.3939500001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>725849.60395</v>
+        <v>740492.7137000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>773756.2588399999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>862400.4567900001</v>
+        <v>863105.5852899998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1226349.75925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1232758.46159</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1135112.617</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>12914.57429</v>
@@ -2672,7 +2798,7 @@
         <v>22125.97196</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>6202.35026</v>
+        <v>6202.350260000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>13730.00654</v>
@@ -2681,28 +2807,33 @@
         <v>11929.64532</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>13078.55719</v>
+        <v>13080.48059</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>14224.22848</v>
+        <v>17692.21419000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>12614.61016</v>
+        <v>12639.90216</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>24983.76803000001</v>
+        <v>24983.76803</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>47183.49626</v>
+        <v>47183.49626000001</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>28209.73530999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>27829.4842</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>58403.36</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>167543.86045</v>
@@ -2714,37 +2845,42 @@
         <v>227339.78908</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>259553.20303</v>
+        <v>259569.84914</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>365611.11983</v>
+        <v>365857.24884</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>434425.94082</v>
+        <v>438832.25835</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>600239.59534</v>
+        <v>639917.17976</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>713234.99379</v>
+        <v>727852.81154</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>748772.49081</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>815216.9605299999</v>
+        <v>815922.0890299999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1198140.02394</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1204928.97739</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1076709.257</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>413345.23455</v>
+        <v>413345.2345499999</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>302863.14544</v>
@@ -2753,43 +2889,48 @@
         <v>1138422.87323</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>399804.01588</v>
+        <v>400090.04573</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>466192.46815</v>
+        <v>466269.08252</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>903579.0679000001</v>
+        <v>910940.2062100001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>309595.61973</v>
+        <v>551520.1400799999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1365637.33645</v>
+        <v>1371615.22002</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>806791.1402200001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>1582132.51564</v>
+        <v>1585777.58426</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1162443.06871</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1172181.42139</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1119092.279</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>90278.26582</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>97057.80258999999</v>
+        <v>97057.80259000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>95249.18540999999</v>
+        <v>95249.18541000002</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>113485.49175</v>
@@ -2801,64 +2942,74 @@
         <v>179454.21028</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>40287.00396</v>
+        <v>203911.08468</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>224981.46986</v>
+        <v>224996.8472</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>243937.58292</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>283396.62894</v>
+        <v>283674.35203</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>293230.12519</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>293793.35385</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>362993.383</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>41149.51388</v>
+        <v>41149.51388000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>35083.42792</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>70070.7789</v>
+        <v>70070.77889999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>64497.98369000001</v>
+        <v>64746.66166</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>60500.53291</v>
+        <v>60503.06366</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>102083.00239</v>
+        <v>102149.58808</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>29306.07417</v>
+        <v>58919.50767</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>61302.17378999999</v>
+        <v>61545.06091999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>169926.15634</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>271033.26832</v>
+        <v>271275.0053199999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>191946.83135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>192666.35399</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>111514.589</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>281917.45485</v>
@@ -2867,76 +3018,86 @@
         <v>170721.91493</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>973102.9089200001</v>
+        <v>973102.90892</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>221820.54044</v>
+        <v>221857.89232</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>273315.12252</v>
+        <v>273389.20614</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>622041.85523</v>
+        <v>629336.4078500001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>240002.5416</v>
+        <v>288689.54773</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1079353.6928</v>
+        <v>1085073.3119</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>392927.4009600001</v>
+        <v>392927.40096</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1027702.61838</v>
+        <v>1030828.22691</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>677266.11217</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>685721.71355</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>644584.307</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>1062838.5623</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>1513863.09192</v>
+        <v>1513860.87192</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1204175.7547</v>
+        <v>1204335.2516</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2317667.22589</v>
+        <v>2315669.46452</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2429064.60072</v>
+        <v>2451104.96682</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2786119.29425</v>
+        <v>2821114.33426</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>3928097.537940001</v>
+        <v>4164056.30164</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4073319.70524</v>
+        <v>4091004.95227</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>6194491.04083</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8037367.650739999</v>
+        <v>8039853.342899999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10853027.53721</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>10851560.66134</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>18859966.135</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>236590.78528</v>
@@ -2945,73 +3106,81 @@
         <v>260181.43368</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>376508.30209</v>
+        <v>376540.20147</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>426291.0905500001</v>
+        <v>426383.46753</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>496904.93689</v>
+        <v>501235.99051</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>535518.70057</v>
+        <v>543503.5257699999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>679960.3653699999</v>
+        <v>713640.4348900001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>754708.6874000001</v>
+        <v>761890.5167200001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>988223.0995</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>1542080.30265</v>
+        <v>1545214.85065</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1798920.92294</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1806903.27154</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2967136.903</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>826247.77702</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1253681.65824</v>
+        <v>1253679.43824</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>827667.45261</v>
+        <v>827795.05013</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1891376.13534</v>
+        <v>1889285.99699</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1932159.66383</v>
+        <v>1949868.97631</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2250600.59368</v>
+        <v>2277610.80849</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>3248137.172569999</v>
+        <v>3450415.86675</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3318611.01784</v>
+        <v>3329114.43555</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>5206267.94133</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6495287.34809</v>
+        <v>6494638.49225</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9054106.61427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9044657.389800001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>15892829.232</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>9915</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>10108</v>
+        <v>10109</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>10645</v>
+        <v>10646</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10850</v>
+        <v>10859</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>11831</v>
+        <v>11857</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>12308</v>
+        <v>12356</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>12626</v>
+        <v>12756</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>13436</v>
+        <v>13491</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>14142</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>13721</v>
+        <v>14843</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>14050</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>15525</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>16520</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>